--- a/Cutting Stock Model/Input/model_input_9groups_2or3spec.xlsx
+++ b/Cutting Stock Model/Input/model_input_9groups_2or3spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/Old Model/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinavandepontseele/Documents/Skole/10semester/master2022/Old Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A17D8E-F029-1B49-94BE-F09278FAF8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DEBA6-413D-ED41-9595-B7CC3AD848EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" activeTab="3" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,11 +800,15 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="1" builtinId="42"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="3" builtinId="46"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
   </cellStyles>
@@ -822,7 +826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1120,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BH21" sqref="BH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="AN2" s="47">
-        <v>267.60000000000002</v>
+        <v>314</v>
       </c>
       <c r="AO2" s="47">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AP2" s="59"/>
       <c r="AQ2" s="25" t="s">
@@ -1765,10 +1769,10 @@
         <v>37</v>
       </c>
       <c r="AN3" s="60">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="AO3" s="60">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AP3" s="59"/>
       <c r="AQ3" s="25" t="s">
@@ -1998,10 +2002,10 @@
         <v>40</v>
       </c>
       <c r="AN4" s="60">
-        <v>439.6</v>
+        <v>291.25</v>
       </c>
       <c r="AO4" s="60">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AP4" s="59"/>
       <c r="AQ4" s="25" t="s">
@@ -2147,10 +2151,10 @@
         <v>39</v>
       </c>
       <c r="AN5" s="60">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AO5" s="60">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AP5" s="59"/>
       <c r="AQ5" s="25" t="s">
@@ -2380,10 +2384,10 @@
         <v>35</v>
       </c>
       <c r="AN6" s="60">
-        <v>100</v>
+        <v>257.45</v>
       </c>
       <c r="AO6" s="60">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="AP6" s="59"/>
       <c r="AQ6" s="25" t="s">
@@ -2613,10 +2617,10 @@
         <v>36</v>
       </c>
       <c r="AN7" s="60">
-        <v>225.4</v>
+        <v>100</v>
       </c>
       <c r="AO7" s="60">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="AP7" s="59"/>
       <c r="AQ7" s="59"/>
@@ -2791,10 +2795,10 @@
         <v>42</v>
       </c>
       <c r="AN9" s="60">
-        <v>208.8</v>
+        <v>141</v>
       </c>
       <c r="AO9" s="60">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="AP9" s="59"/>
       <c r="AQ9" s="59"/>
@@ -2880,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AN10" s="48">
-        <v>141</v>
+        <v>213.6</v>
       </c>
       <c r="AO10" s="48">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AP10" s="59"/>
       <c r="AQ10" s="59"/>
@@ -4523,6 +4527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4531,7 +4536,7 @@
   <dimension ref="B1:AS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5034,6 +5039,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5041,8 +5047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F63FCDE-F32C-FC4B-8139-BA9AF12E9702}">
   <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5117,64 +5123,64 @@
         <v>38</v>
       </c>
       <c r="B2" s="50">
-        <v>0.97309417040358748</v>
+        <v>0.98107255520504733</v>
       </c>
       <c r="C2" s="51">
-        <v>0.94170403587443952</v>
+        <v>0.95899053627760256</v>
       </c>
       <c r="D2" s="51">
-        <v>0.91928251121076232</v>
+        <v>0.94006309148264988</v>
       </c>
       <c r="E2" s="51">
-        <v>0.90134529147982068</v>
+        <v>0.93059936908517349</v>
       </c>
       <c r="F2" s="51">
-        <v>0.74439461883408076</v>
+        <v>0.82334384858044163</v>
       </c>
       <c r="G2" s="51">
-        <v>0.62331838565022424</v>
+        <v>0.73501577287066244</v>
       </c>
       <c r="H2" s="51">
-        <v>0.49327354260089684</v>
+        <v>0.60883280757097791</v>
       </c>
       <c r="I2" s="51">
-        <v>0.38565022421524664</v>
+        <v>0.47318611987381703</v>
       </c>
       <c r="J2" s="51">
-        <v>0.30044843049327352</v>
+        <v>0.35962145110410093</v>
       </c>
       <c r="K2" s="51">
-        <v>0.24663677130044842</v>
+        <v>0.29968454258675081</v>
       </c>
       <c r="L2" s="51">
-        <v>0.18834080717488788</v>
+        <v>0.22397476340694006</v>
       </c>
       <c r="M2" s="51">
-        <v>0.16143497757847533</v>
+        <v>0.19242902208201892</v>
       </c>
       <c r="N2" s="51">
-        <v>0.13004484304932734</v>
+        <v>0.14826498422712933</v>
       </c>
       <c r="O2" s="51">
-        <v>7.623318385650224E-2</v>
+        <v>9.4637223974763401E-2</v>
       </c>
       <c r="P2" s="51">
-        <v>4.9327354260089683E-2</v>
+        <v>6.6246056782334389E-2</v>
       </c>
       <c r="Q2" s="51">
-        <v>3.5874439461883408E-2</v>
+        <v>4.7318611987381701E-2</v>
       </c>
       <c r="R2" s="51">
-        <v>3.1390134529147982E-2</v>
+        <v>4.1009463722397478E-2</v>
       </c>
       <c r="S2" s="51">
-        <v>2.6905829596412557E-2</v>
+        <v>2.8391167192429023E-2</v>
       </c>
       <c r="T2" s="51">
-        <v>2.6905829596412557E-2</v>
+        <v>2.2082018927444796E-2</v>
       </c>
       <c r="U2" s="52">
-        <v>4.4843049327354259E-3</v>
+        <v>3.1545741324921135E-3</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -5182,61 +5188,61 @@
         <v>37</v>
       </c>
       <c r="B3" s="53">
-        <v>0.47422680412371132</v>
+        <v>0.3491271820448878</v>
       </c>
       <c r="C3" s="54">
-        <v>0.35876288659793815</v>
+        <v>0.20698254364089774</v>
       </c>
       <c r="D3" s="54">
-        <v>0.28041237113402062</v>
+        <v>0.11471321695760599</v>
       </c>
       <c r="E3" s="54">
-        <v>0.24536082474226803</v>
+        <v>6.9825436408977551E-2</v>
       </c>
       <c r="F3" s="54">
-        <v>0.22474226804123712</v>
+        <v>4.2394014962593519E-2</v>
       </c>
       <c r="G3" s="54">
-        <v>0.20618556701030927</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="H3" s="54">
-        <v>0.17525773195876287</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="I3" s="54">
-        <v>0.13402061855670103</v>
+        <v>7.481296758104738E-3</v>
       </c>
       <c r="J3" s="54">
-        <v>9.6907216494845363E-2</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="K3" s="54">
-        <v>8.0412371134020624E-2</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="L3" s="54">
-        <v>5.9793814432989693E-2</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="M3" s="54">
-        <v>5.3608247422680409E-2</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="N3" s="54">
-        <v>3.9175257731958762E-2</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="O3" s="54">
-        <v>2.6804123711340205E-2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="54">
-        <v>2.0618556701030927E-2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="54">
-        <v>1.443298969072165E-2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="54">
-        <v>1.2371134020618556E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="54">
-        <v>6.1855670103092781E-3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="54">
-        <v>2.0618556701030928E-3</v>
+        <v>0</v>
       </c>
       <c r="U3" s="55">
         <v>0</v>
@@ -5247,64 +5253,64 @@
         <v>40</v>
       </c>
       <c r="B4" s="53">
-        <v>0.77876106194690264</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="C4" s="54">
-        <v>0.76106194690265483</v>
+        <v>0.91935483870967738</v>
       </c>
       <c r="D4" s="54">
-        <v>0.58407079646017701</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="E4" s="54">
-        <v>0.5752212389380531</v>
+        <v>0.77956989247311825</v>
       </c>
       <c r="F4" s="54">
-        <v>0.55752212389380529</v>
+        <v>0.70430107526881724</v>
       </c>
       <c r="G4" s="54">
-        <v>0.53982300884955747</v>
+        <v>0.63978494623655913</v>
       </c>
       <c r="H4" s="54">
-        <v>0.47787610619469029</v>
+        <v>0.55376344086021501</v>
       </c>
       <c r="I4" s="54">
-        <v>0.40707964601769914</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="J4" s="54">
-        <v>0.31858407079646017</v>
+        <v>0.34946236559139787</v>
       </c>
       <c r="K4" s="54">
-        <v>0.24778761061946902</v>
+        <v>0.26344086021505375</v>
       </c>
       <c r="L4" s="54">
-        <v>0.19469026548672566</v>
+        <v>0.20430107526881722</v>
       </c>
       <c r="M4" s="54">
-        <v>0.17699115044247787</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N4" s="54">
-        <v>0.15044247787610621</v>
+        <v>0.13978494623655913</v>
       </c>
       <c r="O4" s="54">
-        <v>0.15044247787610621</v>
+        <v>0.13440860215053763</v>
       </c>
       <c r="P4" s="54">
-        <v>0.12389380530973451</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="Q4" s="54">
-        <v>9.7345132743362831E-2</v>
+        <v>7.5268817204301078E-2</v>
       </c>
       <c r="R4" s="54">
-        <v>8.8495575221238937E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="S4" s="54">
-        <v>7.0796460176991149E-2</v>
+        <v>4.3010752688172046E-2</v>
       </c>
       <c r="T4" s="54">
-        <v>2.6548672566371681E-2</v>
+        <v>2.1505376344086023E-2</v>
       </c>
       <c r="U4" s="55">
-        <v>1.7699115044247787E-2</v>
+        <v>1.0752688172043012E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -5312,61 +5318,61 @@
         <v>39</v>
       </c>
       <c r="B5" s="53">
-        <v>0.56887755102040816</v>
+        <v>0.41692789968652039</v>
       </c>
       <c r="C5" s="54">
-        <v>0.44897959183673469</v>
+        <v>0.28526645768025077</v>
       </c>
       <c r="D5" s="54">
-        <v>0.32908163265306123</v>
+        <v>0.13479623824451412</v>
       </c>
       <c r="E5" s="54">
-        <v>0.26530612244897961</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="F5" s="54">
-        <v>0.22193877551020408</v>
+        <v>5.9561128526645767E-2</v>
       </c>
       <c r="G5" s="54">
-        <v>0.19387755102040816</v>
+        <v>5.6426332288401257E-2</v>
       </c>
       <c r="H5" s="54">
-        <v>0.16071428571428573</v>
+        <v>4.3887147335423198E-2</v>
       </c>
       <c r="I5" s="54">
-        <v>0.14030612244897958</v>
+        <v>4.0752351097178681E-2</v>
       </c>
       <c r="J5" s="54">
-        <v>0.10204081632653061</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K5" s="54">
-        <v>7.3979591836734693E-2</v>
+        <v>2.5078369905956112E-2</v>
       </c>
       <c r="L5" s="54">
-        <v>6.1224489795918366E-2</v>
+        <v>2.5078369905956112E-2</v>
       </c>
       <c r="M5" s="54">
-        <v>4.8469387755102039E-2</v>
+        <v>2.5078369905956112E-2</v>
       </c>
       <c r="N5" s="54">
-        <v>4.336734693877551E-2</v>
+        <v>2.5078369905956112E-2</v>
       </c>
       <c r="O5" s="54">
-        <v>3.826530612244898E-2</v>
+        <v>2.1943573667711599E-2</v>
       </c>
       <c r="P5" s="54">
-        <v>2.5510204081632654E-2</v>
+        <v>1.8808777429467086E-2</v>
       </c>
       <c r="Q5" s="54">
-        <v>1.2755102040816327E-2</v>
+        <v>6.269592476489028E-3</v>
       </c>
       <c r="R5" s="54">
-        <v>7.6530612244897957E-3</v>
+        <v>3.134796238244514E-3</v>
       </c>
       <c r="S5" s="54">
-        <v>2.5510204081632651E-3</v>
+        <v>3.134796238244514E-3</v>
       </c>
       <c r="T5" s="54">
-        <v>2.5510204081632651E-3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="55">
         <v>0</v>
@@ -5377,64 +5383,64 @@
         <v>35</v>
       </c>
       <c r="B6" s="53">
-        <v>0.56878698224852076</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="C6" s="54">
-        <v>0.34171597633136097</v>
+        <v>0.98275862068965514</v>
       </c>
       <c r="D6" s="54">
-        <v>0.17603550295857989</v>
+        <v>0.91954022988505746</v>
       </c>
       <c r="E6" s="54">
-        <v>0.11020710059171597</v>
+        <v>0.87931034482758619</v>
       </c>
       <c r="F6" s="54">
-        <v>8.5798816568047331E-2</v>
+        <v>0.68390804597701149</v>
       </c>
       <c r="G6" s="54">
-        <v>6.5088757396449703E-2</v>
+        <v>0.54597701149425293</v>
       </c>
       <c r="H6" s="54">
-        <v>5.2514792899408282E-2</v>
+        <v>0.43678160919540232</v>
       </c>
       <c r="I6" s="54">
-        <v>4.6597633136094677E-2</v>
+        <v>0.32758620689655171</v>
       </c>
       <c r="J6" s="54">
-        <v>3.7721893491124259E-2</v>
+        <v>0.2471264367816092</v>
       </c>
       <c r="K6" s="54">
-        <v>2.7366863905325445E-2</v>
+        <v>0.15517241379310345</v>
       </c>
       <c r="L6" s="54">
-        <v>2.0710059171597635E-2</v>
+        <v>0.13218390804597702</v>
       </c>
       <c r="M6" s="54">
-        <v>1.7011834319526627E-2</v>
+        <v>9.1954022988505746E-2</v>
       </c>
       <c r="N6" s="54">
-        <v>1.3313609467455622E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O6" s="54">
-        <v>9.6153846153846159E-3</v>
+        <v>4.5977011494252873E-2</v>
       </c>
       <c r="P6" s="54">
-        <v>6.6568047337278108E-3</v>
+        <v>2.8735632183908046E-2</v>
       </c>
       <c r="Q6" s="54">
-        <v>5.9171597633136093E-3</v>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="R6" s="54">
-        <v>5.9171597633136093E-3</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="S6" s="54">
-        <v>3.6982248520710057E-3</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="T6" s="54">
-        <v>2.9585798816568047E-3</v>
+        <v>5.7471264367816091E-3</v>
       </c>
       <c r="U6" s="55">
-        <v>7.3964497041420117E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -5442,64 +5448,64 @@
         <v>36</v>
       </c>
       <c r="B7" s="53">
-        <v>0.95336787564766834</v>
+        <v>0.57090374724467308</v>
       </c>
       <c r="C7" s="54">
-        <v>0.93264248704663211</v>
+        <v>0.34386480529022778</v>
       </c>
       <c r="D7" s="54">
-        <v>0.86010362694300513</v>
+        <v>0.17707567964731816</v>
       </c>
       <c r="E7" s="54">
-        <v>0.78238341968911918</v>
+        <v>0.10580455547391623</v>
       </c>
       <c r="F7" s="54">
-        <v>0.57512953367875652</v>
+        <v>7.7149155033063924E-2</v>
       </c>
       <c r="G7" s="54">
-        <v>0.40932642487046633</v>
+        <v>5.1432770022042613E-2</v>
       </c>
       <c r="H7" s="54">
-        <v>0.30051813471502592</v>
+        <v>3.7472446730345332E-2</v>
       </c>
       <c r="I7" s="54">
-        <v>0.18652849740932642</v>
+        <v>2.9390154298310066E-2</v>
       </c>
       <c r="J7" s="54">
-        <v>0.13989637305699482</v>
+        <v>2.4246877296105803E-2</v>
       </c>
       <c r="K7" s="54">
-        <v>9.8445595854922283E-2</v>
+        <v>1.9838354151359296E-2</v>
       </c>
       <c r="L7" s="54">
-        <v>8.8082901554404139E-2</v>
+        <v>1.5429831006612785E-2</v>
       </c>
       <c r="M7" s="54">
-        <v>6.2176165803108807E-2</v>
+        <v>1.3960323291697281E-2</v>
       </c>
       <c r="N7" s="54">
-        <v>4.6632124352331605E-2</v>
+        <v>1.1021307861866276E-2</v>
       </c>
       <c r="O7" s="54">
-        <v>2.5906735751295335E-2</v>
+        <v>7.3475385745775165E-3</v>
       </c>
       <c r="P7" s="54">
-        <v>2.072538860103627E-2</v>
+        <v>5.8780308596620128E-3</v>
       </c>
       <c r="Q7" s="54">
-        <v>1.5544041450777202E-2</v>
+        <v>5.1432770022042619E-3</v>
       </c>
       <c r="R7" s="54">
-        <v>1.0362694300518135E-2</v>
+        <v>5.1432770022042619E-3</v>
       </c>
       <c r="S7" s="54">
-        <v>1.0362694300518135E-2</v>
+        <v>2.9390154298310064E-3</v>
       </c>
       <c r="T7" s="54">
-        <v>5.1813471502590676E-3</v>
+        <v>2.9390154298310064E-3</v>
       </c>
       <c r="U7" s="55">
-        <v>0</v>
+        <v>7.347538574577516E-4</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -5572,46 +5578,46 @@
         <v>42</v>
       </c>
       <c r="B9" s="53">
-        <v>1</v>
+        <v>0.58852459016393444</v>
       </c>
       <c r="C9" s="54">
-        <v>1</v>
+        <v>0.26885245901639343</v>
       </c>
       <c r="D9" s="54">
-        <v>0.95652173913043481</v>
+        <v>8.6885245901639346E-2</v>
       </c>
       <c r="E9" s="54">
-        <v>0.91304347826086951</v>
+        <v>4.0983606557377046E-2</v>
       </c>
       <c r="F9" s="54">
-        <v>0.39130434782608697</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="G9" s="54">
-        <v>0.21739130434782608</v>
+        <v>1.1475409836065573E-2</v>
       </c>
       <c r="H9" s="54">
-        <v>0.21739130434782608</v>
+        <v>9.8360655737704927E-3</v>
       </c>
       <c r="I9" s="54">
-        <v>8.6956521739130432E-2</v>
+        <v>4.9180327868852463E-3</v>
       </c>
       <c r="J9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>3.2786885245901639E-3</v>
       </c>
       <c r="K9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>3.2786885245901639E-3</v>
       </c>
       <c r="L9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>1.639344262295082E-3</v>
       </c>
       <c r="M9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>1.639344262295082E-3</v>
       </c>
       <c r="N9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>1.639344262295082E-3</v>
       </c>
       <c r="O9" s="54">
-        <v>4.3478260869565216E-2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="54">
         <v>0</v>
@@ -5637,46 +5643,46 @@
         <v>41</v>
       </c>
       <c r="B10" s="56">
-        <v>0.58852459016393444</v>
+        <v>1</v>
       </c>
       <c r="C10" s="57">
-        <v>0.26885245901639343</v>
+        <v>1</v>
       </c>
       <c r="D10" s="57">
-        <v>8.8524590163934422E-2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="57">
-        <v>4.2622950819672129E-2</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="F10" s="57">
-        <v>1.8032786885245903E-2</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="G10" s="57">
-        <v>1.3114754098360656E-2</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H10" s="57">
-        <v>1.1475409836065573E-2</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="I10" s="57">
-        <v>6.5573770491803279E-3</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="J10" s="57">
-        <v>3.2786885245901639E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="K10" s="57">
-        <v>3.2786885245901639E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="L10" s="57">
-        <v>1.639344262295082E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="M10" s="57">
-        <v>1.639344262295082E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="N10" s="57">
-        <v>1.639344262295082E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="O10" s="57">
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="P10" s="57">
         <v>0</v>
@@ -5696,6 +5702,9 @@
       <c r="U10" s="58">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
@@ -5793,6 +5802,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5800,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B305B3B2-E098-F04C-83CE-B18CE5C01F35}">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5898,11 +5908,11 @@
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="50">
-        <v>0.90134529147982068</v>
+      <c r="B2" s="63">
+        <v>0.93059936908517349</v>
       </c>
       <c r="C2" s="51">
-        <v>0.45739910313901344</v>
+        <v>0.48895899053627762</v>
       </c>
       <c r="D2" s="51">
         <v>0</v>
@@ -5987,10 +5997,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="53">
-        <v>0.24536082474226806</v>
+        <v>6.9825436408977551E-2</v>
       </c>
       <c r="C3" s="54">
-        <v>0.13195876288659794</v>
+        <v>2.7431421446384038E-2</v>
       </c>
       <c r="D3" s="54">
         <v>0</v>
@@ -6075,10 +6085,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="53">
-        <v>0.5752212389380531</v>
+        <v>0.77956989247311825</v>
       </c>
       <c r="C4" s="54">
-        <v>0.24778761061946902</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D4" s="54">
         <v>0</v>
@@ -6163,10 +6173,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="53">
-        <v>0.26530612244897961</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="C5" s="54">
-        <v>0.15306122448979592</v>
+        <v>2.1943573667711599E-2</v>
       </c>
       <c r="D5" s="54">
         <v>0</v>
@@ -6251,10 +6261,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="53">
-        <v>0.11020710059171598</v>
+        <v>0.87931034482758619</v>
       </c>
       <c r="C6" s="54">
-        <v>5.473372781065089E-2</v>
+        <v>0.46551724137931033</v>
       </c>
       <c r="D6" s="54">
         <v>0</v>
@@ -6339,10 +6349,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="53">
-        <v>0.78238341968911918</v>
+        <v>0.10580455547391623</v>
       </c>
       <c r="C7" s="54">
-        <v>0.39378238341968913</v>
+        <v>5.0698016164584865E-2</v>
       </c>
       <c r="D7" s="54">
         <v>0</v>
@@ -6515,10 +6525,10 @@
         <v>42</v>
       </c>
       <c r="B9" s="53">
-        <v>0.91304347826086951</v>
+        <v>4.0983606557377046E-2</v>
       </c>
       <c r="C9" s="54">
-        <v>0.52173913043478259</v>
+        <v>2.2950819672131147E-2</v>
       </c>
       <c r="D9" s="54">
         <v>0</v>
@@ -6603,10 +6613,10 @@
         <v>41</v>
       </c>
       <c r="B10" s="56">
-        <v>4.2622950819672129E-2</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="C10" s="57">
-        <v>2.4590163934426229E-2</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="D10" s="57">
         <v>0</v>
@@ -7200,25 +7210,11 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -7390,31 +7386,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7430,4 +7417,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Cutting Stock Model/Input/model_input_9groups_2or3spec.xlsx
+++ b/Cutting Stock Model/Input/model_input_9groups_2or3spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinavandepontseele/Documents/Skole/10semester/master2022/Old Model/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/Master V22/master2022/Cutting Stock Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DEBA6-413D-ED41-9595-B7CC3AD848EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FF616-0F98-DD49-ADB4-DA163446803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
+    <workbookView xWindow="2020" yWindow="500" windowWidth="34880" windowHeight="17500" xr2:uid="{A5361B1D-8409-0845-981B-BA630B7E70E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
   <si>
     <t>Wards</t>
   </si>
@@ -457,6 +457,117 @@
   </si>
   <si>
     <t>Target Throughput</t>
+  </si>
+  <si>
+    <t>Target T</t>
+  </si>
+  <si>
+    <t>Mean daily throughput</t>
+  </si>
+  <si>
+    <t>GN-c</t>
+  </si>
+  <si>
+    <t>GN-d</t>
+  </si>
+  <si>
+    <t>GN-e</t>
+  </si>
+  <si>
+    <t>GN-f</t>
+  </si>
+  <si>
+    <t>GO-c</t>
+  </si>
+  <si>
+    <t>total expected</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>Y10</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>Y15</t>
+  </si>
+  <si>
+    <t>Y16</t>
+  </si>
+  <si>
+    <t>Y17</t>
+  </si>
+  <si>
+    <t>Y18</t>
+  </si>
+  <si>
+    <t>Y19</t>
+  </si>
+  <si>
+    <t>Y20</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Calculations of Y</t>
   </si>
 </sst>
 </file>
@@ -577,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -728,6 +839,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,7 +893,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,11 +961,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20 % – uthevingsfarge 4" xfId="1" builtinId="42"/>
-    <cellStyle name="20 % – uthevingsfarge 5" xfId="3" builtinId="46"/>
-    <cellStyle name="20 % – uthevingsfarge 6" xfId="4" builtinId="50"/>
+    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{8F977E11-39D4-E04C-8D51-A4F1FE1B59AD}"/>
   </cellStyles>
@@ -826,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1124,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1975E0D-6F6E-A842-BF84-34A209557AB1}">
   <dimension ref="A1:DG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BH21" sqref="BH21"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="CB6" sqref="CB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,8 +1307,8 @@
     <col min="44" max="71" width="3.5" customWidth="1"/>
     <col min="72" max="72" width="10.83203125" customWidth="1"/>
     <col min="74" max="74" width="4.33203125" customWidth="1"/>
-    <col min="83" max="83" width="10.33203125" customWidth="1"/>
-    <col min="84" max="139" width="3.33203125" customWidth="1"/>
+    <col min="78" max="97" width="7.83203125" customWidth="1"/>
+    <col min="98" max="139" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1362,6 +1526,69 @@
       <c r="BW1" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="BY1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="CL1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CP1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="CQ1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1385,88 +1612,88 @@
         <v>33</v>
       </c>
       <c r="I2" s="27">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="P2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="R2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="S2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="T2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="U2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="V2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="W2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="X2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AG2" s="28">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AH2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="28">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AJ2" s="29">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="47">
         <v>20</v>
@@ -1580,91 +1807,83 @@
         <v>450</v>
       </c>
       <c r="BX2" s="2"/>
-      <c r="CD2" s="3"/>
-      <c r="CF2">
-        <v>60</v>
-      </c>
-      <c r="CG2">
-        <v>60</v>
-      </c>
-      <c r="CH2">
-        <v>60</v>
-      </c>
-      <c r="CI2">
-        <v>60</v>
-      </c>
-      <c r="CJ2">
-        <v>49</v>
-      </c>
-      <c r="CK2">
-        <v>49</v>
-      </c>
-      <c r="CL2">
-        <v>49</v>
-      </c>
-      <c r="CM2">
-        <v>60</v>
-      </c>
-      <c r="CN2">
-        <v>60</v>
-      </c>
-      <c r="CO2">
-        <v>60</v>
-      </c>
-      <c r="CP2">
-        <v>60</v>
-      </c>
-      <c r="CQ2">
-        <v>49</v>
-      </c>
-      <c r="CR2">
-        <v>49</v>
-      </c>
-      <c r="CS2">
-        <v>49</v>
-      </c>
-      <c r="CT2">
-        <v>60</v>
-      </c>
-      <c r="CU2">
-        <v>60</v>
-      </c>
-      <c r="CV2">
-        <v>60</v>
-      </c>
-      <c r="CW2">
-        <v>60</v>
-      </c>
-      <c r="CX2">
-        <v>49</v>
-      </c>
-      <c r="CY2">
-        <v>49</v>
-      </c>
-      <c r="CZ2">
-        <v>49</v>
-      </c>
-      <c r="DA2">
-        <v>60</v>
-      </c>
-      <c r="DB2">
-        <v>60</v>
-      </c>
-      <c r="DC2">
-        <v>60</v>
-      </c>
-      <c r="DD2">
-        <v>60</v>
-      </c>
-      <c r="DE2">
-        <v>49</v>
-      </c>
-      <c r="DF2">
-        <v>49</v>
-      </c>
-      <c r="DG2">
-        <v>49</v>
-      </c>
+      <c r="BY2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ2" s="50">
+        <v>14.532825771838038</v>
+      </c>
+      <c r="CA2" s="51">
+        <v>11.549937826710078</v>
+      </c>
+      <c r="CB2" s="51">
+        <v>9.1267398975923619</v>
+      </c>
+      <c r="CC2" s="51">
+        <v>7.1145422287732218</v>
+      </c>
+      <c r="CD2" s="51">
+        <v>5.5274471708492285</v>
+      </c>
+      <c r="CE2" s="51">
+        <v>4.2689860456772335</v>
+      </c>
+      <c r="CF2" s="51">
+        <v>3.2941682366943263</v>
+      </c>
+      <c r="CG2" s="51">
+        <v>2.5016529229902047</v>
+      </c>
+      <c r="CH2" s="51">
+        <v>1.8854625923177513</v>
+      </c>
+      <c r="CI2" s="51">
+        <v>1.3898454063510284</v>
+      </c>
+      <c r="CJ2" s="51">
+        <v>1.0142833543643932</v>
+      </c>
+      <c r="CK2" s="51">
+        <v>0.74259332920850185</v>
+      </c>
+      <c r="CL2" s="51">
+        <v>0.5168455099625836</v>
+      </c>
+      <c r="CM2" s="51">
+        <v>0.34052850206011714</v>
+      </c>
+      <c r="CN2" s="51">
+        <v>0.18911376105522959</v>
+      </c>
+      <c r="CO2" s="51">
+        <v>8.4312249891572016E-2</v>
+      </c>
+      <c r="CP2" s="51">
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="CQ2" s="51">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="51">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="52">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
     </row>
     <row r="3" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1678,88 +1897,88 @@
         <v>44</v>
       </c>
       <c r="I3" s="14">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="J3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="K3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="L3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="M3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="N3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="O3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="P3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="R3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="S3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="T3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="U3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="V3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="W3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="X3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="AE3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="15">
-        <v>6.3579999999999997</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AI3" s="15">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="16">
-        <v>3.468</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="48">
         <v>2</v>
@@ -1873,91 +2092,83 @@
         <v>450</v>
       </c>
       <c r="BX3" s="2"/>
-      <c r="CD3" s="3"/>
-      <c r="CF3">
-        <v>11</v>
-      </c>
-      <c r="CG3">
-        <v>11</v>
-      </c>
-      <c r="CH3">
-        <v>11</v>
-      </c>
-      <c r="CI3">
-        <v>11</v>
-      </c>
-      <c r="CJ3">
-        <v>6</v>
-      </c>
-      <c r="CK3">
-        <v>6</v>
-      </c>
-      <c r="CL3">
-        <v>6</v>
-      </c>
-      <c r="CM3">
-        <v>11</v>
-      </c>
-      <c r="CN3">
-        <v>11</v>
-      </c>
-      <c r="CO3">
-        <v>11</v>
-      </c>
-      <c r="CP3">
-        <v>11</v>
-      </c>
-      <c r="CQ3">
-        <v>6</v>
-      </c>
-      <c r="CR3">
-        <v>6</v>
-      </c>
-      <c r="CS3">
-        <v>6</v>
-      </c>
-      <c r="CT3">
-        <v>11</v>
-      </c>
-      <c r="CU3">
-        <v>11</v>
-      </c>
-      <c r="CV3">
-        <v>11</v>
-      </c>
-      <c r="CW3">
-        <v>11</v>
-      </c>
-      <c r="CX3">
-        <v>6</v>
-      </c>
-      <c r="CY3">
-        <v>6</v>
-      </c>
-      <c r="CZ3">
-        <v>6</v>
-      </c>
-      <c r="DA3">
-        <v>11</v>
-      </c>
-      <c r="DB3">
-        <v>11</v>
-      </c>
-      <c r="DC3">
-        <v>11</v>
-      </c>
-      <c r="DD3">
-        <v>11</v>
-      </c>
-      <c r="DE3">
-        <v>6</v>
-      </c>
-      <c r="DF3">
-        <v>6</v>
-      </c>
-      <c r="DG3">
-        <v>6</v>
-      </c>
+      <c r="BY3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ3" s="56">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="57">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3"/>
+      <c r="DD3" s="3"/>
+      <c r="DE3" s="3"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
     </row>
     <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2107,6 +2318,34 @@
       </c>
       <c r="BX4" s="2"/>
       <c r="CD4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
     </row>
     <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -2256,90 +2495,34 @@
       </c>
       <c r="BX5" s="2"/>
       <c r="CD5" s="3"/>
-      <c r="CF5">
-        <v>32</v>
-      </c>
-      <c r="CG5">
-        <v>32</v>
-      </c>
-      <c r="CH5">
-        <v>32</v>
-      </c>
-      <c r="CI5">
-        <v>32</v>
-      </c>
-      <c r="CJ5">
-        <v>28</v>
-      </c>
-      <c r="CK5">
-        <v>28</v>
-      </c>
-      <c r="CL5">
-        <v>28</v>
-      </c>
-      <c r="CM5">
-        <v>32</v>
-      </c>
-      <c r="CN5">
-        <v>32</v>
-      </c>
-      <c r="CO5">
-        <v>32</v>
-      </c>
-      <c r="CP5">
-        <v>32</v>
-      </c>
-      <c r="CQ5">
-        <v>28</v>
-      </c>
-      <c r="CR5">
-        <v>28</v>
-      </c>
-      <c r="CS5">
-        <v>28</v>
-      </c>
-      <c r="CT5">
-        <v>32</v>
-      </c>
-      <c r="CU5">
-        <v>32</v>
-      </c>
-      <c r="CV5">
-        <v>32</v>
-      </c>
-      <c r="CW5">
-        <v>32</v>
-      </c>
-      <c r="CX5">
-        <v>28</v>
-      </c>
-      <c r="CY5">
-        <v>28</v>
-      </c>
-      <c r="CZ5">
-        <v>28</v>
-      </c>
-      <c r="DA5">
-        <v>32</v>
-      </c>
-      <c r="DB5">
-        <v>32</v>
-      </c>
-      <c r="DC5">
-        <v>32</v>
-      </c>
-      <c r="DD5">
-        <v>32</v>
-      </c>
-      <c r="DE5">
-        <v>28</v>
-      </c>
-      <c r="DF5">
-        <v>28</v>
-      </c>
-      <c r="DG5">
-        <v>28</v>
-      </c>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3"/>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+      <c r="CV5" s="3"/>
+      <c r="CW5" s="3"/>
+      <c r="CX5" s="3"/>
+      <c r="CY5" s="3"/>
+      <c r="CZ5" s="3"/>
+      <c r="DA5" s="3"/>
+      <c r="DB5" s="3"/>
+      <c r="DC5" s="3"/>
+      <c r="DD5" s="3"/>
+      <c r="DE5" s="3"/>
+      <c r="DF5" s="3"/>
+      <c r="DG5" s="3"/>
     </row>
     <row r="6" spans="1:111" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2489,90 +2672,34 @@
       </c>
       <c r="BX6" s="2"/>
       <c r="CD6" s="3"/>
-      <c r="CF6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CG6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CH6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CI6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CJ6">
-        <v>3.468</v>
-      </c>
-      <c r="CK6">
-        <v>3.468</v>
-      </c>
-      <c r="CL6">
-        <v>3.468</v>
-      </c>
-      <c r="CM6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CN6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CO6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CP6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CQ6">
-        <v>3.468</v>
-      </c>
-      <c r="CR6">
-        <v>3.468</v>
-      </c>
-      <c r="CS6">
-        <v>3.468</v>
-      </c>
-      <c r="CT6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CU6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CV6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CW6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="CX6">
-        <v>3.468</v>
-      </c>
-      <c r="CY6">
-        <v>3.468</v>
-      </c>
-      <c r="CZ6">
-        <v>3.468</v>
-      </c>
-      <c r="DA6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="DB6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="DC6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="DD6">
-        <v>6.3579999999999997</v>
-      </c>
-      <c r="DE6">
-        <v>3.468</v>
-      </c>
-      <c r="DF6">
-        <v>3.468</v>
-      </c>
-      <c r="DG6">
-        <v>3.468</v>
-      </c>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3"/>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+      <c r="CV6" s="3"/>
+      <c r="CW6" s="3"/>
+      <c r="CX6" s="3"/>
+      <c r="CY6" s="3"/>
+      <c r="CZ6" s="3"/>
+      <c r="DA6" s="3"/>
+      <c r="DB6" s="3"/>
+      <c r="DC6" s="3"/>
+      <c r="DD6" s="3"/>
+      <c r="DE6" s="3"/>
+      <c r="DF6" s="3"/>
+      <c r="DG6" s="3"/>
     </row>
     <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -2662,6 +2789,34 @@
       </c>
       <c r="BX7" s="2"/>
       <c r="CD7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
+      <c r="DC7" s="3"/>
+      <c r="DD7" s="3"/>
+      <c r="DE7" s="3"/>
+      <c r="DF7" s="3"/>
+      <c r="DG7" s="3"/>
     </row>
     <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -5045,15 +5200,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F63FCDE-F32C-FC4B-8139-BA9AF12E9702}">
-  <dimension ref="A1:AQ28"/>
+  <dimension ref="A1:AW70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="49" max="49" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -5117,8 +5275,71 @@
       <c r="U1" s="49" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK1" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO1" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP1" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ1" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR1" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS1" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT1" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU1" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW1" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -5182,8 +5403,91 @@
       <c r="U2" s="52">
         <v>3.1545741324921135E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="50">
+        <f>AD$70</f>
+        <v>14.532825771838038</v>
+      </c>
+      <c r="AE2" s="51">
+        <f t="shared" ref="AE2:AW2" si="0">AE$70</f>
+        <v>11.549937826710078</v>
+      </c>
+      <c r="AF2" s="51">
+        <f t="shared" si="0"/>
+        <v>9.1267398975923619</v>
+      </c>
+      <c r="AG2" s="51">
+        <f t="shared" si="0"/>
+        <v>7.1145422287732218</v>
+      </c>
+      <c r="AH2" s="51">
+        <f t="shared" si="0"/>
+        <v>5.5274471708492285</v>
+      </c>
+      <c r="AI2" s="51">
+        <f t="shared" si="0"/>
+        <v>4.2689860456772335</v>
+      </c>
+      <c r="AJ2" s="51">
+        <f t="shared" si="0"/>
+        <v>3.2941682366943263</v>
+      </c>
+      <c r="AK2" s="51">
+        <f t="shared" si="0"/>
+        <v>2.5016529229902047</v>
+      </c>
+      <c r="AL2" s="51">
+        <f t="shared" si="0"/>
+        <v>1.8854625923177513</v>
+      </c>
+      <c r="AM2" s="51">
+        <f t="shared" si="0"/>
+        <v>1.3898454063510284</v>
+      </c>
+      <c r="AN2" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0142833543643932</v>
+      </c>
+      <c r="AO2" s="51">
+        <f t="shared" si="0"/>
+        <v>0.74259332920850185</v>
+      </c>
+      <c r="AP2" s="51">
+        <f t="shared" si="0"/>
+        <v>0.5168455099625836</v>
+      </c>
+      <c r="AQ2" s="51">
+        <f t="shared" si="0"/>
+        <v>0.34052850206011714</v>
+      </c>
+      <c r="AR2" s="51">
+        <f t="shared" si="0"/>
+        <v>0.18911376105522959</v>
+      </c>
+      <c r="AS2" s="51">
+        <f t="shared" si="0"/>
+        <v>8.4312249891572016E-2</v>
+      </c>
+      <c r="AT2" s="51">
+        <f t="shared" si="0"/>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AU2" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -5247,8 +5551,71 @@
       <c r="U3" s="55">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="AC3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="57">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -5313,7 +5680,7 @@
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
@@ -5378,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
@@ -5443,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -5508,7 +5875,7 @@
         <v>7.347538574577516E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -5573,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -5638,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -5703,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="64"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
@@ -5796,6 +6163,2920 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="W33" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B2*$X34</f>
+        <v>1.2753943217665615</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:U34" si="1">C2*$X34</f>
+        <v>1.2466876971608833</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2220820189274448</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2097791798107256</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0703470031545741</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95552050473186123</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.79148264984227135</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61514195583596221</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4675078864353312</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38958990536277605</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.29116719242902206</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25015772870662462</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19274447949526813</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12302839116719243</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6119873817034703E-2</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1514195583596214E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3312302839116726E-2</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6908517350157731E-2</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8706624605678237E-2</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.100946372239748E-3</v>
+      </c>
+      <c r="W34" s="47">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <f>W34/20</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" ref="B35:U42" si="2">B3*$X35</f>
+        <v>0.59351620947630923</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.35187032418952613</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19501246882793016</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11870324189526184</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2069825436408982E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3915211970074813E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6957605985037406E-2</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2718204488778055E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>8.4788029925187032E-3</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2394014962593516E-3</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2394014962593516E-3</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2394014962593516E-3</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2394014962593516E-3</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="60">
+        <v>34</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ref="X35:X42" si="3">W35/20</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7655913978494624</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73548387096774193</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.65376344086021509</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5634408602150538</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.51182795698924732</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.44301075268817203</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37849462365591402</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.27956989247311831</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21075268817204301</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16344086021505377</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1118279569892473</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10752688172043011</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="2"/>
+        <v>7.7419354838709681E-2</v>
+      </c>
+      <c r="Q36" s="4">
+        <f t="shared" si="2"/>
+        <v>6.0215053763440864E-2</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1612903225806452E-2</v>
+      </c>
+      <c r="S36" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4408602150537641E-2</v>
+      </c>
+      <c r="T36" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7204301075268821E-2</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6021505376344103E-3</v>
+      </c>
+      <c r="W36" s="60">
+        <v>16</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54200626959247655</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37084639498432603</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17523510971786835</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="2"/>
+        <v>9.7805642633228843E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="2"/>
+        <v>7.7429467084639506E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="2"/>
+        <v>7.3354231974921635E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7053291536050162E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2978056426332285E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4827586206896551E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2601880877742948E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2601880877742948E-2</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2601880877742948E-2</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2601880877742948E-2</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8526645768025081E-2</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4451410658307211E-2</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="shared" si="2"/>
+        <v>8.1504702194357369E-3</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0752351097178684E-3</v>
+      </c>
+      <c r="S37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0752351097178684E-3</v>
+      </c>
+      <c r="T37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="60">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.69195402298850572</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68793103448275861</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64367816091954022</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6155172413793103</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.47873563218390802</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.38218390804597702</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30574712643678159</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22931034482758619</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17298850574712643</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10862068965517241</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2528735632183903E-2</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="2"/>
+        <v>6.4367816091954022E-2</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="2"/>
+        <v>4.8275862068965517E-2</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="2"/>
+        <v>3.2183908045977011E-2</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0114942528735632E-2</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6091954022988506E-2</v>
+      </c>
+      <c r="R38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2068965517241379E-2</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2068965517241379E-2</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0229885057471264E-3</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="60">
+        <v>14</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.3683321087435711</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0288023512123439</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0447465099191773</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62424687729610584</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45518001469507718</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30345334313005146</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22108743570903747</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17340191036002939</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14305657604702424</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11704628949301984</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>9.103600293901544E-2</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="2"/>
+        <v>8.2365907421013962E-2</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5025716385011034E-2</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3350477590007347E-2</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4680382072005876E-2</v>
+      </c>
+      <c r="Q39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0345334313005148E-2</v>
+      </c>
+      <c r="R39" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0345334313005148E-2</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7340191036002938E-2</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7340191036002938E-2</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3350477590007345E-3</v>
+      </c>
+      <c r="W39" s="60">
+        <v>118</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4489795918367349E-2</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6326530612244896E-2</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2244897959183675E-2</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="2"/>
+        <v>8.163265306122448E-3</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>4.081632653061224E-3</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="2"/>
+        <v>4.081632653061224E-3</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="60">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5301639344262297</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6990163934426229</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2259016393442623</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10655737704918032</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2622950819672135E-2</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="2"/>
+        <v>2.9836065573770491E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5573770491803281E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2786885245901641E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5245901639344271E-3</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5245901639344271E-3</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2622950819672135E-3</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2622950819672135E-3</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2622950819672135E-3</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="60">
+        <v>52</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5652173913043481E-2</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6086956521739132E-2</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6086956521739132E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3043478260869566E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="48">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="65">
+        <f>SUM(B34:B42)</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="C44" s="66">
+        <f t="shared" ref="C44:U44" si="4">SUM(C34:C42)</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="D44" s="66">
+        <f t="shared" si="4"/>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="E44" s="66">
+        <f t="shared" si="4"/>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="F44" s="66">
+        <f t="shared" si="4"/>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="G44" s="66">
+        <f t="shared" si="4"/>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="H44" s="66">
+        <f t="shared" si="4"/>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="I44" s="66">
+        <f t="shared" si="4"/>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="J44" s="66">
+        <f t="shared" si="4"/>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="K44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="L44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="M44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="N44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="O44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="P44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="Q44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="R44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="S44" s="66">
+        <f t="shared" si="4"/>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="T44" s="66">
+        <f t="shared" si="4"/>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="U44" s="67">
+        <f t="shared" si="4"/>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+      <c r="I47" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" t="s">
+        <v>150</v>
+      </c>
+      <c r="L47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M47" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" t="s">
+        <v>153</v>
+      </c>
+      <c r="O47" t="s">
+        <v>154</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>149</v>
+      </c>
+      <c r="R47" t="s">
+        <v>150</v>
+      </c>
+      <c r="S47" t="s">
+        <v>151</v>
+      </c>
+      <c r="T47" t="s">
+        <v>152</v>
+      </c>
+      <c r="U47" t="s">
+        <v>153</v>
+      </c>
+      <c r="V47" t="s">
+        <v>154</v>
+      </c>
+      <c r="W47" t="s">
+        <v>148</v>
+      </c>
+      <c r="X47" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC47" s="68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>18</v>
+      </c>
+      <c r="T48">
+        <v>19</v>
+      </c>
+      <c r="U48">
+        <v>20</v>
+      </c>
+      <c r="V48">
+        <v>21</v>
+      </c>
+      <c r="W48">
+        <v>22</v>
+      </c>
+      <c r="X48">
+        <v>23</v>
+      </c>
+      <c r="Y48">
+        <v>24</v>
+      </c>
+      <c r="Z48">
+        <v>25</v>
+      </c>
+      <c r="AA48">
+        <v>26</v>
+      </c>
+      <c r="AB48">
+        <v>27</v>
+      </c>
+      <c r="AC48" s="68">
+        <v>28</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>4</v>
+      </c>
+      <c r="AH48">
+        <v>5</v>
+      </c>
+      <c r="AI48">
+        <v>6</v>
+      </c>
+      <c r="AJ48">
+        <v>7</v>
+      </c>
+      <c r="AK48">
+        <v>8</v>
+      </c>
+      <c r="AL48">
+        <v>9</v>
+      </c>
+      <c r="AM48">
+        <v>10</v>
+      </c>
+      <c r="AN48">
+        <v>11</v>
+      </c>
+      <c r="AO48">
+        <v>12</v>
+      </c>
+      <c r="AP48">
+        <v>13</v>
+      </c>
+      <c r="AQ48">
+        <v>14</v>
+      </c>
+      <c r="AR48">
+        <v>15</v>
+      </c>
+      <c r="AS48">
+        <v>16</v>
+      </c>
+      <c r="AT48">
+        <v>17</v>
+      </c>
+      <c r="AU48">
+        <v>18</v>
+      </c>
+      <c r="AV48">
+        <v>19</v>
+      </c>
+      <c r="AW48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="C49">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="D49">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="E49">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="F49">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="G49">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="H49">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="I49">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="J49">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="K49">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="L49">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="M49">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="N49">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="O49">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="P49">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="Q49">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="R49">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="S49">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="T49">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="U49">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC49" s="68"/>
+    </row>
+    <row r="50" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="D50">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="E50">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="F50">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="G50">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="H50">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="I50">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="J50">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="K50">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="L50">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="M50">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="N50">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="O50">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="P50">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="Q50">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="R50">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="S50">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="T50">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="U50">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="V50">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC50" s="68"/>
+    </row>
+    <row r="51" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="E51">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="F51">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="G51">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="H51">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="I51">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="J51">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="K51">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="L51">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="M51">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="N51">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="O51">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="P51">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="Q51">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="R51">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="S51">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="T51">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="U51">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="V51">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="W51">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC51" s="68"/>
+    </row>
+    <row r="52" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="F52">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="G52">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="H52">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="I52">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="J52">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="K52">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="L52">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="M52">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="N52">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="O52">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="P52">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="Q52">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="R52">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="S52">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="T52">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="U52">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="V52">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="W52">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="X52">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC52" s="68"/>
+    </row>
+    <row r="53" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="G53">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="H53">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="I53">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="J53">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="K53">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="L53">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="M53">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="N53">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="O53">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="P53">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="Q53">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="R53">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="S53">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="T53">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="U53">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="V53">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="W53">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="X53">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="Y53">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC53" s="68"/>
+    </row>
+    <row r="54" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="J54">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="K54">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="L54">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="M54">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="N54">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="O54">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="P54">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="Q54">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="R54">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="S54">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="T54">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="U54">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="V54">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="W54">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="X54">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="Y54">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="Z54">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AA54">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AB54">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AC54" s="68"/>
+    </row>
+    <row r="55" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="K55">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="L55">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="M55">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="N55">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="O55">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="P55">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="Q55">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="R55">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="S55">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="T55">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="U55">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="V55">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="W55">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="X55">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="Y55">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="Z55">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AA55">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AB55">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AC55" s="68">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="L56">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="M56">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="N56">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="O56">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="P56">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="Q56">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="R56">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="S56">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="T56">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="U56">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="V56">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="W56">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="X56">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="Y56">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="Z56">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AA56">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AB56">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AC56" s="68">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AD56">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="M57">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="N57">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="O57">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="P57">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="Q57">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="R57">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="S57">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="T57">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="U57">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="V57">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="W57">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="X57">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="Y57">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="Z57">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AA57">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AB57">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AC57" s="68">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AD57">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AE57">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="N58">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="O58">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="P58">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="Q58">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="R58">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="S58">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="T58">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="U58">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="V58">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="W58">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="X58">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="Y58">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="Z58">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AA58">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AB58">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AC58" s="68">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AD58">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AE58">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AF58">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="Q59">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="R59">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="S59">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="T59">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="U59">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="V59">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="W59">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="X59">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="Y59">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="Z59">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AA59">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AB59">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AC59" s="68">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AD59">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AE59">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AF59">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AG59">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AH59">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AI59">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="R60">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="S60">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="T60">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="U60">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="V60">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="W60">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="X60">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="Y60">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="Z60">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AA60">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AB60">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AC60" s="68">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AD60">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AE60">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AF60">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AG60">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AH60">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AI60">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AJ60">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="S61">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="T61">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="U61">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="V61">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="W61">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="X61">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="Y61">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="Z61">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AA61">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AB61">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AC61" s="68">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AD61">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AE61">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AF61">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AG61">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AH61">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AI61">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AJ61">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AK61">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="T62">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="U62">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="V62">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="W62">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="X62">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="Y62">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="Z62">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AA62">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AB62">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AC62" s="68">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AD62">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AE62">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AF62">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AG62">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AH62">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AI62">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AJ62">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AK62">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AL62">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="U63">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="V63">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="W63">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="X63">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="Y63">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="Z63">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AA63">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AB63">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AC63" s="68">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AD63">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AE63">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AF63">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AG63">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AH63">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AI63">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AJ63">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AK63">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AL63">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AM63">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="X64">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="Y64">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="Z64">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="AA64">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="AB64">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="AC64" s="68">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AD64">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AE64">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AF64">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AG64">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AH64">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AI64">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AJ64">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AK64">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AL64">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AM64">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AN64">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AO64">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AP64">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="24:49" x14ac:dyDescent="0.2">
+      <c r="X65">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="Y65">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="Z65">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="AA65">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="AB65">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="AC65" s="68">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="AD65">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AE65">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AF65">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AG65">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AH65">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AI65">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AJ65">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AK65">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AL65">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AM65">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AN65">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AO65">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AP65">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AQ65">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="24:49" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="Z66">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="AA66">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="AB66">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="AC66" s="68">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="AD66">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="AE66">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AF66">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AG66">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AH66">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AI66">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AJ66">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AK66">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AL66">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AM66">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AN66">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AO66">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AP66">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AQ66">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AR66">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="24:49" x14ac:dyDescent="0.2">
+      <c r="Z67">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="AA67">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="AB67">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="AC67" s="68">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="AD67">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="AE67">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="AF67">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AG67">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AH67">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AI67">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AJ67">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AK67">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AL67">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AM67">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AN67">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AO67">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AP67">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AQ67">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AR67">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AS67">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="24:49" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <f>$B$44</f>
+        <v>8.9526725505574003</v>
+      </c>
+      <c r="AB68">
+        <f>$C$44</f>
+        <v>6.2451278623585695</v>
+      </c>
+      <c r="AC68" s="68">
+        <f>$D$44</f>
+        <v>4.2767458791286828</v>
+      </c>
+      <c r="AD68">
+        <f>$E$44</f>
+        <v>3.5041625459145349</v>
+      </c>
+      <c r="AE68">
+        <f>$F$44</f>
+        <v>2.8114672797650213</v>
+      </c>
+      <c r="AF68">
+        <f>$G$44</f>
+        <v>2.3243414442437658</v>
+      </c>
+      <c r="AG68">
+        <f>$H$44</f>
+        <v>1.8951628545170152</v>
+      </c>
+      <c r="AH68">
+        <f>$I$44</f>
+        <v>1.4960387244074955</v>
+      </c>
+      <c r="AI68">
+        <f>$J$44</f>
+        <v>1.1374649314590288</v>
+      </c>
+      <c r="AJ68">
+        <f>$K$44</f>
+        <v>0.88388653661402705</v>
+      </c>
+      <c r="AK68">
+        <f>$L$44</f>
+        <v>0.68770582741126252</v>
+      </c>
+      <c r="AL68">
+        <f>$M$44</f>
+        <v>0.57975782174891322</v>
+      </c>
+      <c r="AM68">
+        <f>$N$44</f>
+        <v>0.46332541848141801</v>
+      </c>
+      <c r="AN68">
+        <f>$O$44</f>
+        <v>0.33896413037858841</v>
+      </c>
+      <c r="AO68">
+        <f>$P$44</f>
+        <v>0.24278596391479312</v>
+      </c>
+      <c r="AP68">
+        <f>$Q$44</f>
+        <v>0.17631700790246649</v>
+      </c>
+      <c r="AQ68">
+        <f>$R$44</f>
+        <v>0.15141474100488755</v>
+      </c>
+      <c r="AR68">
+        <f>$S$44</f>
+        <v>0.10480151116365756</v>
+      </c>
+      <c r="AS68">
+        <f>$T$44</f>
+        <v>6.7274105222697125E-2</v>
+      </c>
+      <c r="AT68">
+        <f>$U$44</f>
+        <v>1.7038144668874895E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="24:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC69" s="68"/>
+    </row>
+    <row r="70" spans="24:49" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC70" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD70" s="69">
+        <f>SUM(AD49:AD68)</f>
+        <v>14.532825771838038</v>
+      </c>
+      <c r="AE70" s="70">
+        <f t="shared" ref="AE70:AW70" si="5">SUM(AE49:AE68)</f>
+        <v>11.549937826710078</v>
+      </c>
+      <c r="AF70" s="70">
+        <f t="shared" si="5"/>
+        <v>9.1267398975923619</v>
+      </c>
+      <c r="AG70" s="70">
+        <f t="shared" si="5"/>
+        <v>7.1145422287732218</v>
+      </c>
+      <c r="AH70" s="70">
+        <f t="shared" si="5"/>
+        <v>5.5274471708492285</v>
+      </c>
+      <c r="AI70" s="70">
+        <f t="shared" si="5"/>
+        <v>4.2689860456772335</v>
+      </c>
+      <c r="AJ70" s="70">
+        <f t="shared" si="5"/>
+        <v>3.2941682366943263</v>
+      </c>
+      <c r="AK70" s="70">
+        <f t="shared" si="5"/>
+        <v>2.5016529229902047</v>
+      </c>
+      <c r="AL70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.8854625923177513</v>
+      </c>
+      <c r="AM70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.3898454063510284</v>
+      </c>
+      <c r="AN70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.0142833543643932</v>
+      </c>
+      <c r="AO70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.74259332920850185</v>
+      </c>
+      <c r="AP70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.5168455099625836</v>
+      </c>
+      <c r="AQ70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.34052850206011714</v>
+      </c>
+      <c r="AR70" s="70">
+        <f t="shared" si="5"/>
+        <v>0.18911376105522959</v>
+      </c>
+      <c r="AS70" s="70">
+        <f t="shared" si="5"/>
+        <v>8.4312249891572016E-2</v>
+      </c>
+      <c r="AT70" s="70">
+        <f t="shared" si="5"/>
+        <v>1.7038144668874895E-2</v>
+      </c>
+      <c r="AU70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AV70" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U26">
     <sortCondition ref="A2:A26"/>
@@ -7215,6 +10496,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010014502AD36FC4D1459EE8BFEB917118AE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b4cd19ef6f825a6ac181b2aef79b604">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1a062c2-eeb0-45d1-8c80-71eb2bb91349" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="944c6668d3530cb8510fee0a023b67da" ns2:_="">
     <xsd:import namespace="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
@@ -7386,22 +10682,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C770A5B5-1066-461F-A7CC-945216CB7576}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7417,28 +10722,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6800F54-1DFB-4342-B9AD-C5A078244FA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C068943E-AD27-4D1A-99C2-3677F095010F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1a062c2-eeb0-45d1-8c80-71eb2bb91349"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>